--- a/机械臂智云节点协议.xlsx
+++ b/机械臂智云节点协议.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="44">
   <si>
     <t>节点名称</t>
   </si>
@@ -149,192 +149,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">设置深度相机识别的物体空间坐标，进行分析并抓取
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>设置格式</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">：
-{V4=x/y/z}   
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>查询格式</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">：
-{V4=?}
-{V4=0.1/0.2/0.2}                
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>范围</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">：
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>返回</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>：
-执行完成后返回0</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>V2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">查询或者设置机械臂的夹具
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>设置格式</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">：
-{V3=夹具值}
-{V3=0}                表示夹具打开
-{V3=-80}              表示夹具关闭
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>查询格式</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">：
-{V3=?}
-{V3=0}                返回夹具值
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>范围</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">：
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>返回</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>：
-执行完成后返回0</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>关节目标位姿</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -344,6 +162,11 @@
   </si>
   <si>
     <t xml:space="preserve">{A0=0/0/0/0/0}      </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A1=0.189/0.072/0.258/0.383/0.702/0.558
+{V2=0.189/0.072/0.258/0.383/0.702/0.558}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -370,6 +193,7 @@
       </rPr>
       <t xml:space="preserve">：
 {V2=0.176/0.005/0.243/-0.000/0.768/-0.000}  回home
+{V2=0.189/0.072/0.258/0.383/0.702/0.558}   前往一个任意点
 {V2=x/y/z/R/P/Y}    执行完成后返回0
 </t>
     </r>
@@ -432,7 +256,7 @@
         <charset val="134"/>
       </rPr>
       <t>：
-执行完成后返回0</t>
+执行完成后返回0，执行错误返回-1.超时返回-2</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -507,6 +331,7 @@
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">：
+角度方式参考marm.urdf模型，和模型一致
 joint1：[-89,89]   
 joint2：[-44,134]
 joint3：[-134,134]
@@ -532,7 +357,189 @@
         <charset val="134"/>
       </rPr>
       <t>：
-执行完成后返回0</t>
+执行完成后返回0，执行错误返回-1.超时返回-2</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">查询或者设置机械臂的夹具
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>设置格式</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">：
+{V3=夹具值}
+{V3=0}                表示夹具打开
+{V3=-80}              表示夹具关闭
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>查询格式</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">：
+{V3=?}
+{V3=0}                返回夹具值
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>范围</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">：
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>返回</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>：
+执行完成后返回0，执行错误返回-1.超时返回-2</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">设置深度相机识别的物体空间坐标，进行分析并抓取
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>设置格式</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">：
+{V4=x/y/z}   
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>查询格式</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">：
+{V4=?}
+{V4=0.1/0.2/0.2}                
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>范围</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">：
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>返回</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>：
+执行完成后返回0，执行错误返回-1.超时返回-2</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -663,11 +670,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -977,8 +984,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -1017,10 +1024,10 @@
       </c>
     </row>
     <row r="2" spans="1:8" ht="21.6" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="10" t="s">
         <v>9</v>
       </c>
       <c r="C2" s="5" t="s">
@@ -1037,11 +1044,11 @@
       </c>
       <c r="G2" s="2"/>
     </row>
-    <row r="3" spans="1:8" ht="226.8" x14ac:dyDescent="0.25">
-      <c r="A3" s="9"/>
-      <c r="B3" s="9"/>
+    <row r="3" spans="1:8" ht="237.6" x14ac:dyDescent="0.25">
+      <c r="A3" s="10"/>
+      <c r="B3" s="10"/>
       <c r="C3" s="5" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>28</v>
@@ -1050,32 +1057,34 @@
         <v>10</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G3" s="2"/>
       <c r="H3" s="7"/>
     </row>
-    <row r="4" spans="1:8" ht="108" x14ac:dyDescent="0.25">
-      <c r="A4" s="9"/>
-      <c r="B4" s="9"/>
+    <row r="4" spans="1:8" ht="118.8" x14ac:dyDescent="0.25">
+      <c r="A4" s="10"/>
+      <c r="B4" s="10"/>
       <c r="C4" s="5" t="s">
         <v>32</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E4" s="5" t="s">
         <v>18</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G4" s="2"/>
-      <c r="H4" s="10"/>
+      <c r="H4" s="9" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="5" spans="1:8" ht="129.6" x14ac:dyDescent="0.25">
-      <c r="A5" s="9"/>
-      <c r="B5" s="9"/>
+      <c r="A5" s="10"/>
+      <c r="B5" s="10"/>
       <c r="C5" s="5" t="s">
         <v>15</v>
       </c>
@@ -1086,14 +1095,14 @@
         <v>18</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="G5" s="2"/>
       <c r="H5" s="8"/>
     </row>
     <row r="6" spans="1:8" ht="108" x14ac:dyDescent="0.25">
-      <c r="A6" s="9"/>
-      <c r="B6" s="9"/>
+      <c r="A6" s="10"/>
+      <c r="B6" s="10"/>
       <c r="C6" s="5" t="s">
         <v>33</v>
       </c>
@@ -1104,16 +1113,16 @@
         <v>23</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="G6" s="2"/>
       <c r="H6" s="8"/>
     </row>
     <row r="7" spans="1:8" ht="21.6" x14ac:dyDescent="0.25">
-      <c r="A7" s="9"/>
-      <c r="B7" s="9"/>
+      <c r="A7" s="10"/>
+      <c r="B7" s="10"/>
       <c r="C7" s="5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D7" s="5" t="s">
         <v>20</v>
@@ -1122,14 +1131,14 @@
         <v>19</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G7" s="2"/>
       <c r="H7" s="8"/>
     </row>
     <row r="8" spans="1:8" ht="21.6" x14ac:dyDescent="0.25">
-      <c r="A8" s="9"/>
-      <c r="B8" s="9"/>
+      <c r="A8" s="10"/>
+      <c r="B8" s="10"/>
       <c r="C8" s="5" t="s">
         <v>34</v>
       </c>
@@ -1146,8 +1155,8 @@
       <c r="H8" s="8"/>
     </row>
     <row r="9" spans="1:8" ht="21.6" x14ac:dyDescent="0.25">
-      <c r="A9" s="9"/>
-      <c r="B9" s="9"/>
+      <c r="A9" s="10"/>
+      <c r="B9" s="10"/>
       <c r="C9" s="5" t="s">
         <v>25</v>
       </c>
@@ -1164,8 +1173,8 @@
       <c r="H9" s="8"/>
     </row>
     <row r="10" spans="1:8" ht="21.6" x14ac:dyDescent="0.25">
-      <c r="A10" s="9"/>
-      <c r="B10" s="9"/>
+      <c r="A10" s="10"/>
+      <c r="B10" s="10"/>
       <c r="C10" s="5" t="s">
         <v>7</v>
       </c>

--- a/机械臂智云节点协议.xlsx
+++ b/机械臂智云节点协议.xlsx
@@ -104,6 +104,7 @@
         <sz val="9"/>
         <rFont val="宋体"/>
         <family val="3"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">V1=浮点数
 </t>
@@ -339,6 +340,7 @@
         <sz val="9"/>
         <rFont val="宋体"/>
         <family val="3"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">V3=整数
 </t>
@@ -476,7 +478,7 @@
       </rPr>
       <t xml:space="preserve">：
 {V4=?}
-{V4=0.1/0.2/0.2}                
+{V4=0.0/0.0/0.2}                
 </t>
     </r>
     <r>
@@ -630,6 +632,7 @@
       <sz val="9"/>
       <name val="宋体"/>
       <family val="3"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="8"/>
@@ -754,15 +757,15 @@
   </sheetPr>
   <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G5" activeCellId="0" sqref="G5"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A5" colorId="64" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F6" activeCellId="0" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.62890625" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="5.55"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="8.22"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="8.45"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="8.46"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="62.11"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="5.12"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="59.89"/>
@@ -868,7 +871,7 @@
       <c r="G5" s="5"/>
       <c r="H5" s="8"/>
     </row>
-    <row r="6" customFormat="false" ht="128.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="131.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2" t="s">
